--- a/functionalities/Reports.xlsx
+++ b/functionalities/Reports.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet name="Annual Reports" sheetId="1" r:id="rId1"/>
-    <sheet name="Monthly Reports" sheetId="4" r:id="rId2"/>
-    <sheet name="Weekly Reports" sheetId="5" r:id="rId3"/>
-    <sheet name="Daily Reports" sheetId="6" r:id="rId4"/>
-    <sheet name="UPN Report" sheetId="7" r:id="rId5"/>
-    <sheet name="Annual bill" sheetId="8" r:id="rId6"/>
+    <sheet name="Detailed Annual Report" sheetId="9" r:id="rId1"/>
+    <sheet name="Annual Reports" sheetId="1" r:id="rId2"/>
+    <sheet name="Monthly Reports" sheetId="4" r:id="rId3"/>
+    <sheet name="Weekly Reports" sheetId="5" r:id="rId4"/>
+    <sheet name="Daily Reports" sheetId="6" r:id="rId5"/>
+    <sheet name="UPN Report" sheetId="7" r:id="rId6"/>
+    <sheet name="Annual bill" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="125">
   <si>
     <t>ANNUAL REPORTS:</t>
   </si>
@@ -304,6 +305,117 @@
   </si>
   <si>
     <t>Previous Year</t>
+  </si>
+  <si>
+    <t>UPN</t>
+  </si>
+  <si>
+    <t>SUB-UPN</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>123-1234-1235</t>
+  </si>
+  <si>
+    <t>123-1234-1236</t>
+  </si>
+  <si>
+    <t>123-1234-1234B</t>
+  </si>
+  <si>
+    <t>10 Good street, PO Box 200, Accra</t>
+  </si>
+  <si>
+    <t>11 Good street, PO Box 200, Accra</t>
+  </si>
+  <si>
+    <t>Aunty Sara</t>
+  </si>
+  <si>
+    <t>Aunty Sima</t>
+  </si>
+  <si>
+    <t>99 Busua Road, 1st floor, 1290 Accra</t>
+  </si>
+  <si>
+    <t>Uncle Sam</t>
+  </si>
+  <si>
+    <t>201 Independent Avenue, 1220 Accra</t>
+  </si>
+  <si>
+    <t>Sam Mitchel</t>
+  </si>
+  <si>
+    <t>ACCRA</t>
+  </si>
+  <si>
+    <t>Bussines Name</t>
+  </si>
+  <si>
+    <t>Sara Bakery</t>
+  </si>
+  <si>
+    <t>123-1234-1299</t>
+  </si>
+  <si>
+    <t>123-1234-1300</t>
+  </si>
+  <si>
+    <t>12 Ministral Road, 1290 Greater Accra</t>
+  </si>
+  <si>
+    <t>201 Cantonment Avenue, 1220 Accra</t>
+  </si>
+  <si>
+    <t>Sima Hairdresser</t>
+  </si>
+  <si>
+    <t>My 3rd Cinema</t>
+  </si>
+  <si>
+    <t>Something Special</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>District Assembly</t>
+  </si>
+  <si>
+    <t>Mini National Park, South part, Accra</t>
+  </si>
+  <si>
+    <t>Mini Kiddy South Park, South West Parkside, Accra</t>
+  </si>
+  <si>
+    <t>Swimming Ground, Swimming Lane, Accra</t>
+  </si>
+  <si>
+    <t>45th Market, Accra</t>
+  </si>
+  <si>
+    <t>ANNUAL DISTRICT REPORT (DETAILED):</t>
+  </si>
+  <si>
+    <t>123-1234-5555</t>
+  </si>
+  <si>
+    <t>123-1234-6666</t>
+  </si>
+  <si>
+    <t>123-1234-7777</t>
+  </si>
+  <si>
+    <t>123-1234-8888</t>
   </si>
 </sst>
 </file>
@@ -437,7 +549,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +559,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -774,9 +892,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -802,6 +917,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,10 +1246,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="7">
+        <v>120</v>
+      </c>
+      <c r="H6" s="7">
+        <v>100</v>
+      </c>
+      <c r="I6" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="7">
+        <v>129</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="69">
+        <v>3</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="7">
+        <v>300</v>
+      </c>
+      <c r="H8" s="7">
+        <v>100</v>
+      </c>
+      <c r="I8" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="69">
+        <v>4</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="65">
+        <v>0</v>
+      </c>
+      <c r="H9" s="65">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74">
+        <f>SUM(G6:G9)</f>
+        <v>549</v>
+      </c>
+      <c r="H10" s="74">
+        <f t="shared" ref="H10:I10" si="0">SUM(H6:H9)</f>
+        <v>200</v>
+      </c>
+      <c r="I10" s="74">
+        <f t="shared" si="0"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="7">
+        <v>998</v>
+      </c>
+      <c r="I14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="7">
+        <v>850</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="69">
+        <v>3</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5000</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="69">
+        <v>4</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="65">
+        <v>1230</v>
+      </c>
+      <c r="H17" s="65">
+        <v>1250</v>
+      </c>
+      <c r="I17" s="8">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74">
+        <f>SUM(G14:G17)</f>
+        <v>8080</v>
+      </c>
+      <c r="H18" s="74">
+        <f t="shared" ref="H18" si="1">SUM(H14:H17)</f>
+        <v>7248</v>
+      </c>
+      <c r="I18" s="74">
+        <f t="shared" ref="I18" si="2">SUM(I14:I17)</f>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="7">
+        <v>900</v>
+      </c>
+      <c r="I22" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="69">
+        <v>3</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="E24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1500</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="69">
+        <v>4</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="65">
+        <v>1200</v>
+      </c>
+      <c r="H25" s="65">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74">
+        <f>SUM(G22:G25)</f>
+        <v>3700</v>
+      </c>
+      <c r="H26" s="74">
+        <f t="shared" ref="H26" si="3">SUM(H22:H25)</f>
+        <v>3400</v>
+      </c>
+      <c r="I26" s="74">
+        <f t="shared" ref="I26" si="4">SUM(I22:I25)</f>
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B26:F26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,7 +2306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M41"/>
   <sheetViews>
@@ -2113,7 +2804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M41"/>
   <sheetViews>
@@ -2611,7 +3302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M41"/>
   <sheetViews>
@@ -3109,7 +3800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F13"/>
   <sheetViews>
@@ -3267,12 +3958,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,22 +3983,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="29"/>
       <c r="C2" s="17"/>
       <c r="D2" s="7"/>
@@ -3319,10 +4010,10 @@
       <c r="J2" s="4"/>
       <c r="K2" s="36"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="54"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="4"/>
       <c r="C3" s="32"/>
       <c r="D3" s="39" t="s">
@@ -3338,10 +4029,10 @@
       <c r="J3" s="4"/>
       <c r="K3" s="37"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="54"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="30"/>
       <c r="C4" s="31"/>
       <c r="D4" s="33" t="s">
@@ -3355,10 +4046,10 @@
       <c r="J4" s="4"/>
       <c r="K4" s="38"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="54"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3376,10 +4067,10 @@
         <v>75</v>
       </c>
       <c r="L5" s="45"/>
-      <c r="M5" s="54"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="27" t="s">
         <v>72</v>
       </c>
@@ -3397,10 +4088,10 @@
         <v>56</v>
       </c>
       <c r="L6" s="45"/>
-      <c r="M6" s="54"/>
+      <c r="M6" s="53"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="27" t="s">
         <v>46</v>
       </c>
@@ -3416,10 +4107,10 @@
       <c r="J7" s="4"/>
       <c r="K7" s="45"/>
       <c r="L7" s="45"/>
-      <c r="M7" s="54"/>
+      <c r="M7" s="53"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="27" t="s">
         <v>57</v>
       </c>
@@ -3439,10 +4130,10 @@
       <c r="L8" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="54"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="27" t="s">
         <v>58</v>
       </c>
@@ -3462,10 +4153,10 @@
       <c r="L9" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="54"/>
+      <c r="M9" s="53"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="27" t="s">
         <v>60</v>
       </c>
@@ -3485,10 +4176,10 @@
       <c r="L10" s="45">
         <v>2013</v>
       </c>
-      <c r="M10" s="54"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="27" t="s">
         <v>59</v>
       </c>
@@ -3508,10 +4199,10 @@
       <c r="L11" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="M11" s="54"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="27"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3523,77 +4214,77 @@
       <c r="J12" s="4"/>
       <c r="K12" s="45"/>
       <c r="L12" s="45"/>
-      <c r="M12" s="54"/>
+      <c r="M12" s="53"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="61" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="64"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="4"/>
       <c r="K13" s="45"/>
       <c r="L13" s="45"/>
-      <c r="M13" s="54"/>
+      <c r="M13" s="53"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="59">
+      <c r="A14" s="52"/>
+      <c r="B14" s="58">
         <v>2013</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="59">
         <v>0.01</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="58"/>
+      <c r="I14" s="57"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="54"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="53"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="61" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="60" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="7"/>
@@ -3602,22 +4293,22 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="54"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="53"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="59">
+      <c r="A16" s="52"/>
+      <c r="B16" s="58">
         <v>2012</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="49"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -3625,40 +4316,40 @@
       <c r="J16" s="4"/>
       <c r="K16" s="45"/>
       <c r="L16" s="45"/>
-      <c r="M16" s="54"/>
+      <c r="M16" s="53"/>
     </row>
     <row r="17" spans="1:13" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="57"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="56"/>
     </row>
     <row r="18" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="51"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="29"/>
       <c r="C19" s="17"/>
       <c r="D19" s="7"/>
@@ -3670,10 +4361,10 @@
       <c r="J19" s="4"/>
       <c r="K19" s="36"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="54"/>
+      <c r="M19" s="53"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="4"/>
       <c r="C20" s="32"/>
       <c r="D20" s="39" t="s">
@@ -3689,10 +4380,10 @@
       <c r="J20" s="4"/>
       <c r="K20" s="37"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="54"/>
+      <c r="M20" s="53"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="30"/>
       <c r="C21" s="31"/>
       <c r="D21" s="33" t="s">
@@ -3706,10 +4397,10 @@
       <c r="J21" s="4"/>
       <c r="K21" s="38"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="54"/>
+      <c r="M21" s="53"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -3727,10 +4418,10 @@
         <v>75</v>
       </c>
       <c r="L22" s="45"/>
-      <c r="M22" s="54"/>
+      <c r="M22" s="53"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="27" t="s">
         <v>72</v>
       </c>
@@ -3748,10 +4439,10 @@
         <v>56</v>
       </c>
       <c r="L23" s="45"/>
-      <c r="M23" s="54"/>
+      <c r="M23" s="53"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="27" t="s">
         <v>46</v>
       </c>
@@ -3767,10 +4458,10 @@
       <c r="J24" s="4"/>
       <c r="K24" s="45"/>
       <c r="L24" s="45"/>
-      <c r="M24" s="54"/>
+      <c r="M24" s="53"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="27" t="s">
         <v>57</v>
       </c>
@@ -3790,10 +4481,10 @@
       <c r="L25" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="54"/>
+      <c r="M25" s="53"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="27" t="s">
         <v>58</v>
       </c>
@@ -3813,10 +4504,10 @@
       <c r="L26" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="M26" s="54"/>
+      <c r="M26" s="53"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="27" t="s">
         <v>60</v>
       </c>
@@ -3836,10 +4527,10 @@
       <c r="L27" s="45">
         <v>2013</v>
       </c>
-      <c r="M27" s="54"/>
+      <c r="M27" s="53"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="27" t="s">
         <v>59</v>
       </c>
@@ -3859,10 +4550,10 @@
       <c r="L28" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="M28" s="54"/>
+      <c r="M28" s="53"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="27"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3874,77 +4565,77 @@
       <c r="J29" s="4"/>
       <c r="K29" s="45"/>
       <c r="L29" s="45"/>
-      <c r="M29" s="54"/>
+      <c r="M29" s="53"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="61" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="61" t="s">
+      <c r="F30" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H30" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="64"/>
+      <c r="I30" s="63"/>
       <c r="J30" s="4"/>
       <c r="K30" s="45"/>
       <c r="L30" s="45"/>
-      <c r="M30" s="54"/>
+      <c r="M30" s="53"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="59">
+      <c r="A31" s="52"/>
+      <c r="B31" s="58">
         <v>2013</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="60">
+      <c r="E31" s="59">
         <v>0.01</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="59" t="s">
+      <c r="G31" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="I31" s="58"/>
+      <c r="I31" s="57"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="48" t="s">
+      <c r="K31" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="L31" s="48"/>
-      <c r="M31" s="54"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="53"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="61" t="s">
+      <c r="A32" s="52"/>
+      <c r="B32" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="60" t="s">
         <v>70</v>
       </c>
       <c r="E32" s="7"/>
@@ -3953,22 +4644,22 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="54"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="53"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="59">
+      <c r="A33" s="52"/>
+      <c r="B33" s="58">
         <v>2012</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="49"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -3976,40 +4667,40 @@
       <c r="J33" s="4"/>
       <c r="K33" s="45"/>
       <c r="L33" s="45"/>
-      <c r="M33" s="54"/>
+      <c r="M33" s="53"/>
     </row>
     <row r="34" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="57"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="56"/>
     </row>
     <row r="35" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="52"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="51"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="29"/>
       <c r="C36" s="17"/>
       <c r="D36" s="7"/>
@@ -4021,10 +4712,10 @@
       <c r="J36" s="4"/>
       <c r="K36" s="36"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="54"/>
+      <c r="M36" s="53"/>
     </row>
     <row r="37" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="4"/>
       <c r="C37" s="32"/>
       <c r="D37" s="39" t="s">
@@ -4040,10 +4731,10 @@
       <c r="J37" s="4"/>
       <c r="K37" s="37"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="54"/>
+      <c r="M37" s="53"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="30"/>
       <c r="C38" s="31"/>
       <c r="D38" s="33" t="s">
@@ -4057,10 +4748,10 @@
       <c r="J38" s="4"/>
       <c r="K38" s="38"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="54"/>
+      <c r="M38" s="53"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="7"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -4078,10 +4769,10 @@
         <v>75</v>
       </c>
       <c r="L39" s="45"/>
-      <c r="M39" s="54"/>
+      <c r="M39" s="53"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="27" t="s">
         <v>72</v>
       </c>
@@ -4099,10 +4790,10 @@
         <v>56</v>
       </c>
       <c r="L40" s="45"/>
-      <c r="M40" s="54"/>
+      <c r="M40" s="53"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="27" t="s">
         <v>46</v>
       </c>
@@ -4118,10 +4809,10 @@
       <c r="J41" s="4"/>
       <c r="K41" s="45"/>
       <c r="L41" s="45"/>
-      <c r="M41" s="54"/>
+      <c r="M41" s="53"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="27" t="s">
         <v>57</v>
       </c>
@@ -4141,10 +4832,10 @@
       <c r="L42" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="M42" s="54"/>
+      <c r="M42" s="53"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="27" t="s">
         <v>58</v>
       </c>
@@ -4164,10 +4855,10 @@
       <c r="L43" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="M43" s="54"/>
+      <c r="M43" s="53"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="27" t="s">
         <v>60</v>
       </c>
@@ -4187,10 +4878,10 @@
       <c r="L44" s="45">
         <v>2013</v>
       </c>
-      <c r="M44" s="54"/>
+      <c r="M44" s="53"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="27" t="s">
         <v>59</v>
       </c>
@@ -4210,10 +4901,10 @@
       <c r="L45" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="M45" s="54"/>
+      <c r="M45" s="53"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="27"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -4225,77 +4916,77 @@
       <c r="J46" s="4"/>
       <c r="K46" s="45"/>
       <c r="L46" s="45"/>
-      <c r="M46" s="54"/>
+      <c r="M46" s="53"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="61" t="s">
+      <c r="A47" s="52"/>
+      <c r="B47" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="61" t="s">
+      <c r="D47" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="61" t="s">
+      <c r="E47" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="61" t="s">
+      <c r="F47" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="61" t="s">
+      <c r="G47" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H47" s="61" t="s">
+      <c r="H47" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="I47" s="64"/>
+      <c r="I47" s="63"/>
       <c r="J47" s="4"/>
       <c r="K47" s="45"/>
       <c r="L47" s="45"/>
-      <c r="M47" s="54"/>
+      <c r="M47" s="53"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="59">
+      <c r="A48" s="52"/>
+      <c r="B48" s="58">
         <v>2013</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="60">
+      <c r="E48" s="59">
         <v>0.01</v>
       </c>
-      <c r="F48" s="59" t="s">
+      <c r="F48" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="59" t="s">
+      <c r="G48" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="I48" s="58"/>
+      <c r="I48" s="57"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="48" t="s">
+      <c r="K48" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="L48" s="48"/>
-      <c r="M48" s="54"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="53"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="61" t="s">
+      <c r="A49" s="52"/>
+      <c r="B49" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="61" t="s">
+      <c r="D49" s="60" t="s">
         <v>70</v>
       </c>
       <c r="E49" s="7"/>
@@ -4304,22 +4995,22 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="54"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="53"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="59">
+      <c r="A50" s="52"/>
+      <c r="B50" s="58">
         <v>2012</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="D50" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="49"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -4327,22 +5018,22 @@
       <c r="J50" s="4"/>
       <c r="K50" s="45"/>
       <c r="L50" s="45"/>
-      <c r="M50" s="54"/>
+      <c r="M50" s="53"/>
     </row>
     <row r="51" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="57"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/functionalities/Reports.xlsx
+++ b/functionalities/Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed Annual Report" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="132">
   <si>
     <t>ANNUAL REPORTS:</t>
   </si>
@@ -416,6 +416,27 @@
   </si>
   <si>
     <t>123-1234-8888</t>
+  </si>
+  <si>
+    <t>log:</t>
+  </si>
+  <si>
+    <t>09.10.2013</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>recommendations</t>
+  </si>
+  <si>
+    <t>test by</t>
+  </si>
+  <si>
+    <t>Please present this bill when making a payment</t>
   </si>
 </sst>
 </file>
@@ -918,9 +939,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -935,15 +953,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1264,7 +1285,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>120</v>
       </c>
       <c r="C2" s="2"/>
@@ -1275,22 +1296,22 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="70" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="27"/>
@@ -1302,28 +1323,28 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="73" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1380,17 +1401,17 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="69">
+      <c r="B8" s="68">
         <v>3</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70" t="s">
+      <c r="D8" s="69"/>
+      <c r="E8" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="69" t="s">
         <v>101</v>
       </c>
       <c r="G8" s="7">
@@ -1404,23 +1425,23 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="69">
+      <c r="B9" s="68">
         <v>4</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70" t="s">
+      <c r="D9" s="69"/>
+      <c r="E9" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="64">
         <v>0</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="64">
         <v>0</v>
       </c>
       <c r="I9" s="8">
@@ -1428,22 +1449,22 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="72">
         <f>SUM(G6:G9)</f>
         <v>549</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="72">
         <f t="shared" ref="H10:I10" si="0">SUM(H6:H9)</f>
         <v>200</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="72">
         <f t="shared" si="0"/>
         <v>349</v>
       </c>
@@ -1459,7 +1480,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="65" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="27"/>
@@ -1471,28 +1492,28 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="75" t="s">
+      <c r="G13" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="75" t="s">
+      <c r="H13" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="75" t="s">
+      <c r="I13" s="73" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1549,17 +1570,17 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="69">
+      <c r="B16" s="68">
         <v>3</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70" t="s">
+      <c r="D16" s="69"/>
+      <c r="E16" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="69" t="s">
         <v>112</v>
       </c>
       <c r="G16" s="7">
@@ -1573,23 +1594,23 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="69">
+      <c r="B17" s="68">
         <v>4</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="64">
         <v>1230</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="64">
         <v>1250</v>
       </c>
       <c r="I17" s="8">
@@ -1597,22 +1618,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="72">
         <f>SUM(G14:G17)</f>
         <v>8080</v>
       </c>
-      <c r="H18" s="74">
+      <c r="H18" s="72">
         <f t="shared" ref="H18" si="1">SUM(H14:H17)</f>
         <v>7248</v>
       </c>
-      <c r="I18" s="74">
+      <c r="I18" s="72">
         <f t="shared" ref="I18" si="2">SUM(I14:I17)</f>
         <v>832</v>
       </c>
@@ -1623,12 +1644,12 @@
       <c r="D19" s="7"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="65" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="27"/>
@@ -1640,28 +1661,28 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="75" t="s">
+      <c r="G21" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="75" t="s">
+      <c r="H21" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="75" t="s">
+      <c r="I21" s="73" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1714,13 +1735,13 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="69">
+      <c r="B24" s="68">
         <v>3</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="70"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="7" t="s">
         <v>118</v>
       </c>
@@ -1738,23 +1759,23 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="69">
+      <c r="B25" s="68">
         <v>4</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="70"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="64">
         <v>1200</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="64">
         <v>1000</v>
       </c>
       <c r="I25" s="8">
@@ -1762,22 +1783,22 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74">
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="72">
         <f>SUM(G22:G25)</f>
         <v>3700</v>
       </c>
-      <c r="H26" s="74">
+      <c r="H26" s="72">
         <f t="shared" ref="H26" si="3">SUM(H22:H25)</f>
         <v>3400</v>
       </c>
-      <c r="I26" s="74">
+      <c r="I26" s="72">
         <f t="shared" ref="I26" si="4">SUM(I22:I25)</f>
         <v>300</v>
       </c>
@@ -3802,10 +3823,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3953,6 +3974,31 @@
         <v>43</v>
       </c>
     </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3962,8 +4008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:D21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4270,10 +4316,10 @@
       </c>
       <c r="I14" s="57"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="64"/>
+      <c r="K14" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="76"/>
       <c r="M14" s="53"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4293,8 +4339,8 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
       <c r="M15" s="53"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4621,10 +4667,10 @@
       </c>
       <c r="I31" s="57"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="64" t="s">
+      <c r="K31" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="L31" s="64"/>
+      <c r="L31" s="76"/>
       <c r="M31" s="53"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4644,8 +4690,8 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
       <c r="M32" s="53"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4972,10 +5018,10 @@
       </c>
       <c r="I48" s="57"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="64" t="s">
+      <c r="K48" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="L48" s="64"/>
+      <c r="L48" s="76"/>
       <c r="M48" s="53"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -4995,8 +5041,8 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
       <c r="M49" s="53"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
